--- a/admin/doanh_thu.xlsx
+++ b/admin/doanh_thu.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Mã đơn</t>
   </si>
@@ -38,37 +38,19 @@
     <t>Trạng thái</t>
   </si>
   <si>
-    <t>Thế Quang, 0971625536</t>
-  </si>
-  <si>
-    <t>Dương Lôi, Tân Hồng, Từ Sơn, Bắc Ninh</t>
-  </si>
-  <si>
-    <t>10h04 9-6</t>
-  </si>
-  <si>
-    <t>2024-06-09 10:04:48</t>
-  </si>
-  <si>
-    <t>Hoàn thành</t>
-  </si>
-  <si>
-    <t>Nguyễn Thế Quang, 0971625536</t>
+    <t>Nguyễn Thế Quang, 0971625535</t>
   </si>
   <si>
     <t>Từ Sơn - Bắc Ninh</t>
   </si>
   <si>
-    <t>ưer</t>
-  </si>
-  <si>
-    <t>2024-06-10 00:55:51</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>2024-06-11 01:12:58</t>
+    <t>2024-06-11 14:18:28</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>2024-07-03 22:57:15</t>
   </si>
   <si>
     <t>Tổng doanh thu:</t>
@@ -411,7 +393,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,10 +429,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -459,76 +441,50 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>154000.0</v>
-      </c>
-      <c r="F2" t="s">
+        <v>100000.0</v>
+      </c>
+      <c r="F2">
+        <v>12345</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
+      <c r="H2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>1050000.0</v>
+        <v>1246000.0</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
         <v>12</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4">
-        <v>1700000.0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>2904000.0</v>
+        <v>1346000.0</v>
       </c>
     </row>
   </sheetData>
